--- a/data/robot_2_data.xlsx
+++ b/data/robot_2_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F376"/>
+  <dimension ref="A1:G376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,11 @@
           <t>Station2_Inverter2_MinusWire</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Integrity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -483,6 +488,9 @@
       <c r="F2" t="n">
         <v>27.849</v>
       </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>27.5</v>
       </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,6 +534,9 @@
       <c r="F4" t="n">
         <v>25.3</v>
       </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -539,6 +553,9 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -558,6 +575,9 @@
       </c>
       <c r="F6" t="n">
         <v>27.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -579,6 +599,9 @@
       <c r="F7" t="n">
         <v>27.8</v>
       </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -599,6 +622,9 @@
       <c r="F8" t="n">
         <v>21.2</v>
       </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -613,6 +639,9 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -633,6 +662,9 @@
       <c r="F10" t="n">
         <v>27.8</v>
       </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -653,6 +685,9 @@
       <c r="F11" t="n">
         <v>27.8</v>
       </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -673,6 +708,9 @@
       <c r="F12" t="n">
         <v>27.8</v>
       </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -693,6 +731,9 @@
       <c r="F13" t="n">
         <v>27.8</v>
       </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -713,6 +754,9 @@
       <c r="F14" t="n">
         <v>27.8</v>
       </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -733,6 +777,9 @@
       <c r="F15" t="n">
         <v>27.8</v>
       </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -753,6 +800,9 @@
       <c r="F16" t="n">
         <v>27.8</v>
       </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -773,6 +823,9 @@
       <c r="F17" t="n">
         <v>27.8</v>
       </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -793,6 +846,9 @@
       <c r="F18" t="n">
         <v>20.8</v>
       </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -813,6 +869,9 @@
       <c r="F19" t="n">
         <v>26.5</v>
       </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -833,6 +892,9 @@
       <c r="F20" t="n">
         <v>26.5</v>
       </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -853,6 +915,9 @@
       <c r="F21" t="n">
         <v>20.6</v>
       </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -867,6 +932,9 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -887,6 +955,9 @@
       <c r="F23" t="n">
         <v>27.8</v>
       </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -907,6 +978,9 @@
       <c r="F24" t="n">
         <v>27.8</v>
       </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -927,6 +1001,9 @@
       <c r="F25" t="n">
         <v>21.2</v>
       </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -947,6 +1024,9 @@
       <c r="F26" t="n">
         <v>25.8</v>
       </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -967,6 +1047,9 @@
       <c r="F27" t="n">
         <v>24</v>
       </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -987,6 +1070,9 @@
       <c r="F28" t="n">
         <v>24</v>
       </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1003,6 +1089,9 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1023,6 +1112,9 @@
       <c r="F30" t="n">
         <v>26.6</v>
       </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1043,6 +1135,9 @@
       <c r="F31" t="n">
         <v>26.6</v>
       </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1061,6 +1156,9 @@
       <c r="F32" t="n">
         <v>21.6</v>
       </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1077,6 +1175,9 @@
         <v>28</v>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1097,6 +1198,9 @@
       <c r="F34" t="n">
         <v>27</v>
       </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1117,6 +1221,9 @@
       <c r="F35" t="n">
         <v>27</v>
       </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1133,6 +1240,9 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1153,6 +1263,9 @@
       <c r="F37" t="n">
         <v>27.6</v>
       </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1173,6 +1286,9 @@
       <c r="F38" t="n">
         <v>27</v>
       </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1193,6 +1309,9 @@
       <c r="F39" t="n">
         <v>27</v>
       </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1213,6 +1332,9 @@
       <c r="F40" t="n">
         <v>27</v>
       </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1233,6 +1355,9 @@
       <c r="F41" t="n">
         <v>24.4</v>
       </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1249,6 +1374,9 @@
         <v>23.3</v>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1263,6 +1391,9 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1283,6 +1414,9 @@
       <c r="F44" t="n">
         <v>26.3</v>
       </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1303,6 +1437,9 @@
       <c r="F45" t="n">
         <v>26.3</v>
       </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1323,6 +1460,9 @@
       <c r="F46" t="n">
         <v>20.2</v>
       </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1343,6 +1483,9 @@
       <c r="F47" t="n">
         <v>24.9</v>
       </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1363,6 +1506,9 @@
       <c r="F48" t="n">
         <v>24.9</v>
       </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1381,6 +1527,9 @@
         <v>26.8</v>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1397,6 +1546,9 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1417,6 +1569,9 @@
       <c r="F51" t="n">
         <v>26.5</v>
       </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1437,6 +1592,9 @@
       <c r="F52" t="n">
         <v>26.5</v>
       </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1457,6 +1615,9 @@
       <c r="F53" t="n">
         <v>21.4</v>
       </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1471,6 +1632,9 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1491,6 +1655,9 @@
       <c r="F55" t="n">
         <v>25.1</v>
       </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1511,6 +1678,9 @@
       <c r="F56" t="n">
         <v>25.1</v>
       </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1531,6 +1701,9 @@
       <c r="F57" t="n">
         <v>19.8</v>
       </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1545,6 +1718,9 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1565,6 +1741,9 @@
       <c r="F59" t="n">
         <v>26.3</v>
       </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1585,6 +1764,9 @@
       <c r="F60" t="n">
         <v>26.3</v>
       </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1605,6 +1787,9 @@
       <c r="F61" t="n">
         <v>26.3</v>
       </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1625,6 +1810,9 @@
       <c r="F62" t="n">
         <v>26.3</v>
       </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1643,6 +1831,9 @@
       <c r="F63" t="n">
         <v>22.4</v>
       </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1663,6 +1854,9 @@
       <c r="F64" t="n">
         <v>25.4</v>
       </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1683,6 +1877,9 @@
       <c r="F65" t="n">
         <v>25.4</v>
       </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1703,6 +1900,9 @@
       <c r="F66" t="n">
         <v>25.4</v>
       </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1723,6 +1923,9 @@
       <c r="F67" t="n">
         <v>25.4</v>
       </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1743,6 +1946,9 @@
       <c r="F68" t="n">
         <v>25.4</v>
       </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1763,6 +1969,9 @@
       <c r="F69" t="n">
         <v>25.4</v>
       </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1783,6 +1992,9 @@
       <c r="F70" t="n">
         <v>25.4</v>
       </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1803,6 +2015,9 @@
       <c r="F71" t="n">
         <v>25.4</v>
       </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1823,6 +2038,9 @@
       <c r="F72" t="n">
         <v>21.6</v>
       </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1843,6 +2061,9 @@
       <c r="F73" t="n">
         <v>23.1</v>
       </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1863,6 +2084,9 @@
       <c r="F74" t="n">
         <v>23.1</v>
       </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1883,6 +2107,9 @@
       <c r="F75" t="n">
         <v>19.2</v>
       </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1901,6 +2128,9 @@
       <c r="F76" t="n">
         <v>26.5</v>
       </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1921,6 +2151,9 @@
       <c r="F77" t="n">
         <v>26.5</v>
       </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1941,6 +2174,9 @@
       <c r="F78" t="n">
         <v>26.5</v>
       </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1961,6 +2197,9 @@
       <c r="F79" t="n">
         <v>21.2</v>
       </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1975,6 +2214,9 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1995,6 +2237,9 @@
       <c r="F81" t="n">
         <v>25.6</v>
       </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2015,6 +2260,9 @@
       <c r="F82" t="n">
         <v>25.6</v>
       </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2033,6 +2281,9 @@
       <c r="F83" t="n">
         <v>20.6</v>
       </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2053,6 +2304,9 @@
       <c r="F84" t="n">
         <v>25.1</v>
       </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2073,6 +2327,9 @@
       <c r="F85" t="n">
         <v>25.1</v>
       </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2091,6 +2348,9 @@
       <c r="F86" t="n">
         <v>23.1</v>
       </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2105,6 +2365,9 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2125,6 +2388,9 @@
       <c r="F88" t="n">
         <v>25.8</v>
       </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2145,6 +2411,9 @@
       <c r="F89" t="n">
         <v>25.8</v>
       </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2165,6 +2434,9 @@
       <c r="F90" t="n">
         <v>20.4</v>
       </c>
+      <c r="G90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2183,6 +2455,9 @@
       <c r="F91" t="n">
         <v>26.5</v>
       </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2203,6 +2478,9 @@
       <c r="F92" t="n">
         <v>24</v>
       </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2223,6 +2501,9 @@
       <c r="F93" t="n">
         <v>24</v>
       </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2243,6 +2524,9 @@
       <c r="F94" t="n">
         <v>20.6</v>
       </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2261,6 +2545,9 @@
       <c r="F95" t="n">
         <v>26.8</v>
       </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2281,6 +2568,9 @@
       <c r="F96" t="n">
         <v>26.8</v>
       </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2301,6 +2591,9 @@
       <c r="F97" t="n">
         <v>26.8</v>
       </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2321,6 +2614,9 @@
       <c r="F98" t="n">
         <v>26.8</v>
       </c>
+      <c r="G98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2341,6 +2637,9 @@
       <c r="F99" t="n">
         <v>26.8</v>
       </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2361,6 +2660,9 @@
       <c r="F100" t="n">
         <v>26.8</v>
       </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2381,6 +2683,9 @@
       <c r="F101" t="n">
         <v>26.8</v>
       </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2401,6 +2706,9 @@
       <c r="F102" t="n">
         <v>20.2</v>
       </c>
+      <c r="G102" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2421,6 +2729,9 @@
       <c r="F103" t="n">
         <v>25.8</v>
       </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2441,6 +2752,9 @@
       <c r="F104" t="n">
         <v>25.8</v>
       </c>
+      <c r="G104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2457,6 +2771,9 @@
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2477,6 +2794,9 @@
       <c r="F106" t="n">
         <v>26.6</v>
       </c>
+      <c r="G106" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2497,6 +2817,9 @@
       <c r="F107" t="n">
         <v>25.4</v>
       </c>
+      <c r="G107" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2517,6 +2840,9 @@
       <c r="F108" t="n">
         <v>25.4</v>
       </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2537,6 +2863,9 @@
       <c r="F109" t="n">
         <v>21.6</v>
       </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2557,6 +2886,9 @@
       <c r="F110" t="n">
         <v>25.1</v>
       </c>
+      <c r="G110" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2577,6 +2909,9 @@
       <c r="F111" t="n">
         <v>25.1</v>
       </c>
+      <c r="G111" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2597,6 +2932,9 @@
       <c r="F112" t="n">
         <v>23.1</v>
       </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2611,6 +2949,9 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2631,6 +2972,9 @@
       <c r="F114" t="n">
         <v>25.8</v>
       </c>
+      <c r="G114" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2651,6 +2995,9 @@
       <c r="F115" t="n">
         <v>25.8</v>
       </c>
+      <c r="G115" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2670,6 +3017,9 @@
       </c>
       <c r="F116" t="n">
         <v>20</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -2687,6 +3037,9 @@
       <c r="F117" t="n">
         <v>26.5</v>
       </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2707,6 +3060,9 @@
       <c r="F118" t="n">
         <v>26.1</v>
       </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2727,6 +3083,9 @@
       <c r="F119" t="n">
         <v>26.1</v>
       </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2747,6 +3106,9 @@
       <c r="F120" t="n">
         <v>20.6</v>
       </c>
+      <c r="G120" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2765,6 +3127,9 @@
       <c r="F121" t="n">
         <v>26.8</v>
       </c>
+      <c r="G121" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2785,6 +3150,9 @@
       <c r="F122" t="n">
         <v>26.1</v>
       </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2805,6 +3173,9 @@
       <c r="F123" t="n">
         <v>26.1</v>
       </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2825,6 +3196,9 @@
       <c r="F124" t="n">
         <v>24.6</v>
       </c>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2845,6 +3219,9 @@
       <c r="F125" t="n">
         <v>25.1</v>
       </c>
+      <c r="G125" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2865,6 +3242,9 @@
       <c r="F126" t="n">
         <v>25.1</v>
       </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2885,6 +3265,9 @@
       <c r="F127" t="n">
         <v>25.1</v>
       </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2905,6 +3288,9 @@
       <c r="F128" t="n">
         <v>25.8</v>
       </c>
+      <c r="G128" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2919,6 +3305,9 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2939,6 +3328,9 @@
       <c r="F130" t="n">
         <v>26.1</v>
       </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2959,6 +3351,9 @@
       <c r="F131" t="n">
         <v>26.1</v>
       </c>
+      <c r="G131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2979,6 +3374,9 @@
       <c r="F132" t="n">
         <v>20.6</v>
       </c>
+      <c r="G132" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2999,6 +3397,9 @@
       <c r="F133" t="n">
         <v>24.7</v>
       </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3019,6 +3420,9 @@
       <c r="F134" t="n">
         <v>24.7</v>
       </c>
+      <c r="G134" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3037,6 +3441,9 @@
       <c r="F135" t="n">
         <v>23.7</v>
       </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3051,6 +3458,9 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3071,6 +3481,9 @@
       <c r="F137" t="n">
         <v>26</v>
       </c>
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3091,6 +3504,9 @@
       <c r="F138" t="n">
         <v>26</v>
       </c>
+      <c r="G138" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3111,6 +3527,9 @@
       <c r="F139" t="n">
         <v>20.8</v>
       </c>
+      <c r="G139" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3131,6 +3550,9 @@
       <c r="F140" t="n">
         <v>25.4</v>
       </c>
+      <c r="G140" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3151,6 +3573,9 @@
       <c r="F141" t="n">
         <v>25.4</v>
       </c>
+      <c r="G141" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3171,6 +3596,9 @@
       <c r="F142" t="n">
         <v>19.8</v>
       </c>
+      <c r="G142" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3191,6 +3619,9 @@
       <c r="F143" t="n">
         <v>26</v>
       </c>
+      <c r="G143" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3211,6 +3642,9 @@
       <c r="F144" t="n">
         <v>26</v>
       </c>
+      <c r="G144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3229,6 +3663,9 @@
         <v>19.6</v>
       </c>
       <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3249,6 +3686,9 @@
       <c r="F146" t="n">
         <v>24</v>
       </c>
+      <c r="G146" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3269,6 +3709,9 @@
       <c r="F147" t="n">
         <v>24</v>
       </c>
+      <c r="G147" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3287,6 +3730,9 @@
       <c r="F148" t="n">
         <v>19</v>
       </c>
+      <c r="G148" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3307,6 +3753,9 @@
       <c r="F149" t="n">
         <v>24.2</v>
       </c>
+      <c r="G149" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3327,6 +3776,9 @@
       <c r="F150" t="n">
         <v>25.3</v>
       </c>
+      <c r="G150" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3347,6 +3799,9 @@
       <c r="F151" t="n">
         <v>25.3</v>
       </c>
+      <c r="G151" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3367,6 +3822,9 @@
       <c r="F152" t="n">
         <v>25.3</v>
       </c>
+      <c r="G152" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3387,6 +3845,9 @@
       <c r="F153" t="n">
         <v>20.8</v>
       </c>
+      <c r="G153" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3405,6 +3866,9 @@
       <c r="F154" t="n">
         <v>27.1</v>
       </c>
+      <c r="G154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3425,6 +3889,9 @@
       <c r="F155" t="n">
         <v>27.1</v>
       </c>
+      <c r="G155" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3445,6 +3912,9 @@
       <c r="F156" t="n">
         <v>27.1</v>
       </c>
+      <c r="G156" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3465,6 +3935,9 @@
       <c r="F157" t="n">
         <v>27.1</v>
       </c>
+      <c r="G157" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3485,6 +3958,9 @@
       <c r="F158" t="n">
         <v>27.1</v>
       </c>
+      <c r="G158" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3505,6 +3981,9 @@
       <c r="F159" t="n">
         <v>27.1</v>
       </c>
+      <c r="G159" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3525,6 +4004,9 @@
       <c r="F160" t="n">
         <v>27.1</v>
       </c>
+      <c r="G160" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3545,6 +4027,9 @@
       <c r="F161" t="n">
         <v>27.1</v>
       </c>
+      <c r="G161" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3565,6 +4050,9 @@
       <c r="F162" t="n">
         <v>27.1</v>
       </c>
+      <c r="G162" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3585,6 +4073,9 @@
       <c r="F163" t="n">
         <v>21.6</v>
       </c>
+      <c r="G163" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3605,6 +4096,9 @@
       <c r="F164" t="n">
         <v>26</v>
       </c>
+      <c r="G164" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3625,6 +4119,9 @@
       <c r="F165" t="n">
         <v>26</v>
       </c>
+      <c r="G165" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3645,6 +4142,9 @@
       <c r="F166" t="n">
         <v>20.6</v>
       </c>
+      <c r="G166" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3665,6 +4165,9 @@
       <c r="F167" t="n">
         <v>25.8</v>
       </c>
+      <c r="G167" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3685,6 +4188,9 @@
       <c r="F168" t="n">
         <v>25.8</v>
       </c>
+      <c r="G168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3705,6 +4211,9 @@
       <c r="F169" t="n">
         <v>20.8</v>
       </c>
+      <c r="G169" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3721,6 +4230,9 @@
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3741,6 +4253,9 @@
       <c r="F171" t="n">
         <v>25.1</v>
       </c>
+      <c r="G171" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3761,6 +4276,9 @@
       <c r="F172" t="n">
         <v>25.1</v>
       </c>
+      <c r="G172" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3775,6 +4293,9 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3791,6 +4312,9 @@
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3811,6 +4335,9 @@
       <c r="F175" t="n">
         <v>25.8</v>
       </c>
+      <c r="G175" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3831,6 +4358,9 @@
       <c r="F176" t="n">
         <v>25.8</v>
       </c>
+      <c r="G176" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3851,6 +4381,9 @@
       <c r="F177" t="n">
         <v>20.8</v>
       </c>
+      <c r="G177" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3865,6 +4398,9 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3885,6 +4421,9 @@
       <c r="F179" t="n">
         <v>26.1</v>
       </c>
+      <c r="G179" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3905,6 +4444,9 @@
       <c r="F180" t="n">
         <v>26.1</v>
       </c>
+      <c r="G180" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3925,6 +4467,9 @@
       <c r="F181" t="n">
         <v>20.8</v>
       </c>
+      <c r="G181" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3943,6 +4488,9 @@
       <c r="F182" t="n">
         <v>26.8</v>
       </c>
+      <c r="G182" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3963,6 +4511,9 @@
       <c r="F183" t="n">
         <v>26.8</v>
       </c>
+      <c r="G183" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3983,6 +4534,9 @@
       <c r="F184" t="n">
         <v>26.8</v>
       </c>
+      <c r="G184" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4003,6 +4557,9 @@
       <c r="F185" t="n">
         <v>26.8</v>
       </c>
+      <c r="G185" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4023,6 +4580,9 @@
       <c r="F186" t="n">
         <v>25.8</v>
       </c>
+      <c r="G186" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4041,6 +4601,9 @@
       <c r="F187" t="n">
         <v>26.3</v>
       </c>
+      <c r="G187" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4057,6 +4620,9 @@
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4077,6 +4643,9 @@
       <c r="F189" t="n">
         <v>25.4</v>
       </c>
+      <c r="G189" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4097,6 +4666,9 @@
       <c r="F190" t="n">
         <v>25.4</v>
       </c>
+      <c r="G190" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4117,6 +4689,9 @@
       <c r="F191" t="n">
         <v>20.8</v>
       </c>
+      <c r="G191" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4137,6 +4712,9 @@
       <c r="F192" t="n">
         <v>24.2</v>
       </c>
+      <c r="G192" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4157,6 +4735,9 @@
       <c r="F193" t="n">
         <v>24.2</v>
       </c>
+      <c r="G193" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4177,6 +4758,9 @@
       <c r="F194" t="n">
         <v>19.6</v>
       </c>
+      <c r="G194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4195,6 +4779,9 @@
       <c r="F195" t="n">
         <v>25.3</v>
       </c>
+      <c r="G195" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4215,6 +4802,9 @@
       <c r="F196" t="n">
         <v>25.3</v>
       </c>
+      <c r="G196" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4235,6 +4825,9 @@
       <c r="F197" t="n">
         <v>25.3</v>
       </c>
+      <c r="G197" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4255,6 +4848,9 @@
       <c r="F198" t="n">
         <v>21.2</v>
       </c>
+      <c r="G198" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4275,6 +4871,9 @@
       <c r="F199" t="n">
         <v>24.4</v>
       </c>
+      <c r="G199" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4295,6 +4894,9 @@
       <c r="F200" t="n">
         <v>24.4</v>
       </c>
+      <c r="G200" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4313,6 +4915,9 @@
       <c r="F201" t="n">
         <v>21.8</v>
       </c>
+      <c r="G201" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4331,6 +4936,9 @@
       <c r="F202" t="n">
         <v>24.9</v>
       </c>
+      <c r="G202" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4351,6 +4959,9 @@
       <c r="F203" t="n">
         <v>24.9</v>
       </c>
+      <c r="G203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4371,6 +4982,9 @@
       <c r="F204" t="n">
         <v>24.9</v>
       </c>
+      <c r="G204" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4391,6 +5005,9 @@
       <c r="F205" t="n">
         <v>24.9</v>
       </c>
+      <c r="G205" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4411,6 +5028,9 @@
       <c r="F206" t="n">
         <v>24.9</v>
       </c>
+      <c r="G206" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4431,6 +5051,9 @@
       <c r="F207" t="n">
         <v>24.9</v>
       </c>
+      <c r="G207" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4451,6 +5074,9 @@
       <c r="F208" t="n">
         <v>24.9</v>
       </c>
+      <c r="G208" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4471,6 +5097,9 @@
       <c r="F209" t="n">
         <v>19.8</v>
       </c>
+      <c r="G209" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4491,6 +5120,9 @@
       <c r="F210" t="n">
         <v>21</v>
       </c>
+      <c r="G210" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4511,6 +5143,9 @@
       <c r="F211" t="n">
         <v>21</v>
       </c>
+      <c r="G211" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4527,6 +5162,9 @@
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4547,6 +5185,9 @@
       <c r="F213" t="n">
         <v>25.8</v>
       </c>
+      <c r="G213" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4567,6 +5208,9 @@
       <c r="F214" t="n">
         <v>25.3</v>
       </c>
+      <c r="G214" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4587,6 +5231,9 @@
       <c r="F215" t="n">
         <v>25.3</v>
       </c>
+      <c r="G215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4607,6 +5254,9 @@
       <c r="F216" t="n">
         <v>19.4</v>
       </c>
+      <c r="G216" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4625,6 +5275,9 @@
       <c r="F217" t="n">
         <v>25.4</v>
       </c>
+      <c r="G217" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4645,6 +5298,9 @@
       <c r="F218" t="n">
         <v>25.1</v>
       </c>
+      <c r="G218" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4665,6 +5321,9 @@
       <c r="F219" t="n">
         <v>25.1</v>
       </c>
+      <c r="G219" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -4685,6 +5344,9 @@
       <c r="F220" t="n">
         <v>19.2</v>
       </c>
+      <c r="G220" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4699,6 +5361,9 @@
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -4719,6 +5384,9 @@
       <c r="F222" t="n">
         <v>25.6</v>
       </c>
+      <c r="G222" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4739,6 +5407,9 @@
       <c r="F223" t="n">
         <v>25.6</v>
       </c>
+      <c r="G223" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4759,6 +5430,9 @@
       <c r="F224" t="n">
         <v>19.4</v>
       </c>
+      <c r="G224" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4779,6 +5453,9 @@
       <c r="F225" t="n">
         <v>24.6</v>
       </c>
+      <c r="G225" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4799,6 +5476,9 @@
       <c r="F226" t="n">
         <v>24.6</v>
       </c>
+      <c r="G226" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4815,6 +5495,9 @@
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
+      <c r="G227" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4833,6 +5516,9 @@
       <c r="F228" t="n">
         <v>26.3</v>
       </c>
+      <c r="G228" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4853,6 +5539,9 @@
       <c r="F229" t="n">
         <v>26.3</v>
       </c>
+      <c r="G229" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -4873,6 +5562,9 @@
       <c r="F230" t="n">
         <v>26.3</v>
       </c>
+      <c r="G230" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -4893,6 +5585,9 @@
       <c r="F231" t="n">
         <v>19.2</v>
       </c>
+      <c r="G231" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -4909,6 +5604,9 @@
         <v>26.8</v>
       </c>
       <c r="F232" t="inlineStr"/>
+      <c r="G232" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -4929,6 +5627,9 @@
       <c r="F233" t="n">
         <v>26.3</v>
       </c>
+      <c r="G233" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -4949,6 +5650,9 @@
       <c r="F234" t="n">
         <v>26.3</v>
       </c>
+      <c r="G234" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -4969,6 +5673,9 @@
       <c r="F235" t="n">
         <v>26.3</v>
       </c>
+      <c r="G235" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -4989,6 +5696,9 @@
       <c r="F236" t="n">
         <v>26.3</v>
       </c>
+      <c r="G236" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5009,6 +5719,9 @@
       <c r="F237" t="n">
         <v>26.3</v>
       </c>
+      <c r="G237" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5029,6 +5742,9 @@
       <c r="F238" t="n">
         <v>26.3</v>
       </c>
+      <c r="G238" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5049,6 +5765,9 @@
       <c r="F239" t="n">
         <v>26.3</v>
       </c>
+      <c r="G239" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5069,6 +5788,9 @@
       <c r="F240" t="n">
         <v>26.3</v>
       </c>
+      <c r="G240" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5089,6 +5811,9 @@
       <c r="F241" t="n">
         <v>19.4</v>
       </c>
+      <c r="G241" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5107,6 +5832,9 @@
         <v>27.5</v>
       </c>
       <c r="F242" t="inlineStr"/>
+      <c r="G242" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5127,6 +5855,9 @@
       <c r="F243" t="n">
         <v>27</v>
       </c>
+      <c r="G243" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5147,6 +5878,9 @@
       <c r="F244" t="n">
         <v>27</v>
       </c>
+      <c r="G244" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5167,6 +5901,9 @@
       <c r="F245" t="n">
         <v>22.2</v>
       </c>
+      <c r="G245" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5187,6 +5924,9 @@
       <c r="F246" t="n">
         <v>26.1</v>
       </c>
+      <c r="G246" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -5207,6 +5947,9 @@
       <c r="F247" t="n">
         <v>26.1</v>
       </c>
+      <c r="G247" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5226,6 +5969,9 @@
       </c>
       <c r="F248" t="n">
         <v>20.8</v>
+      </c>
+      <c r="G248" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="249">
@@ -5243,6 +5989,9 @@
       <c r="F249" t="n">
         <v>26.3</v>
       </c>
+      <c r="G249" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5263,6 +6012,9 @@
       <c r="F250" t="n">
         <v>25.8</v>
       </c>
+      <c r="G250" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5283,6 +6035,9 @@
       <c r="F251" t="n">
         <v>25.8</v>
       </c>
+      <c r="G251" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5297,6 +6052,9 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5317,6 +6075,9 @@
       <c r="F253" t="n">
         <v>26.3</v>
       </c>
+      <c r="G253" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5337,6 +6098,9 @@
       <c r="F254" t="n">
         <v>26.3</v>
       </c>
+      <c r="G254" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5357,6 +6121,9 @@
       <c r="F255" t="n">
         <v>18.4</v>
       </c>
+      <c r="G255" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5373,6 +6140,9 @@
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
+      <c r="G256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5393,6 +6163,9 @@
       <c r="F257" t="n">
         <v>26</v>
       </c>
+      <c r="G257" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5413,6 +6186,9 @@
       <c r="F258" t="n">
         <v>26</v>
       </c>
+      <c r="G258" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5433,6 +6209,9 @@
       <c r="F259" t="n">
         <v>19.6</v>
       </c>
+      <c r="G259" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5451,6 +6230,9 @@
       <c r="F260" t="n">
         <v>28</v>
       </c>
+      <c r="G260" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5471,6 +6253,9 @@
       <c r="F261" t="n">
         <v>28</v>
       </c>
+      <c r="G261" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5491,6 +6276,9 @@
       <c r="F262" t="n">
         <v>28</v>
       </c>
+      <c r="G262" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5511,6 +6299,9 @@
       <c r="F263" t="n">
         <v>21</v>
       </c>
+      <c r="G263" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5531,6 +6322,9 @@
       <c r="F264" t="n">
         <v>25.6</v>
       </c>
+      <c r="G264" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5551,6 +6345,9 @@
       <c r="F265" t="n">
         <v>26</v>
       </c>
+      <c r="G265" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5569,6 +6366,9 @@
       <c r="F266" t="n">
         <v>24.4</v>
       </c>
+      <c r="G266" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -5583,6 +6383,9 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5603,6 +6406,9 @@
       <c r="F268" t="n">
         <v>26.6</v>
       </c>
+      <c r="G268" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5623,6 +6429,9 @@
       <c r="F269" t="n">
         <v>26.6</v>
       </c>
+      <c r="G269" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -5643,6 +6452,9 @@
       <c r="F270" t="n">
         <v>26.6</v>
       </c>
+      <c r="G270" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5663,6 +6475,9 @@
       <c r="F271" t="n">
         <v>26.6</v>
       </c>
+      <c r="G271" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5683,6 +6498,9 @@
       <c r="F272" t="n">
         <v>26.6</v>
       </c>
+      <c r="G272" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -5703,6 +6521,9 @@
       <c r="F273" t="n">
         <v>26.6</v>
       </c>
+      <c r="G273" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -5723,6 +6544,9 @@
       <c r="F274" t="n">
         <v>26.6</v>
       </c>
+      <c r="G274" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -5743,6 +6567,9 @@
       <c r="F275" t="n">
         <v>26.6</v>
       </c>
+      <c r="G275" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5763,6 +6590,9 @@
       <c r="F276" t="n">
         <v>26.6</v>
       </c>
+      <c r="G276" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5783,6 +6613,9 @@
       <c r="F277" t="n">
         <v>26.6</v>
       </c>
+      <c r="G277" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -5803,6 +6636,9 @@
       <c r="F278" t="n">
         <v>20.4</v>
       </c>
+      <c r="G278" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -5819,6 +6655,9 @@
         <v>29.1</v>
       </c>
       <c r="F279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -5839,6 +6678,9 @@
       <c r="F280" t="n">
         <v>27.3</v>
       </c>
+      <c r="G280" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -5859,6 +6701,9 @@
       <c r="F281" t="n">
         <v>27.3</v>
       </c>
+      <c r="G281" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -5879,6 +6724,9 @@
       <c r="F282" t="n">
         <v>21.8</v>
       </c>
+      <c r="G282" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -5897,6 +6745,9 @@
       <c r="F283" t="n">
         <v>28.3</v>
       </c>
+      <c r="G283" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -5917,6 +6768,9 @@
       <c r="F284" t="n">
         <v>28.3</v>
       </c>
+      <c r="G284" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -5937,6 +6791,9 @@
       <c r="F285" t="n">
         <v>28.3</v>
       </c>
+      <c r="G285" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -5957,6 +6814,9 @@
       <c r="F286" t="n">
         <v>22</v>
       </c>
+      <c r="G286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -5977,6 +6837,9 @@
       <c r="F287" t="n">
         <v>26.5</v>
       </c>
+      <c r="G287" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -5997,6 +6860,9 @@
       <c r="F288" t="n">
         <v>23.8</v>
       </c>
+      <c r="G288" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6015,6 +6881,9 @@
       <c r="F289" t="n">
         <v>27.1</v>
       </c>
+      <c r="G289" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6029,6 +6898,9 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
+      <c r="G290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6049,6 +6921,9 @@
       <c r="F291" t="n">
         <v>26.6</v>
       </c>
+      <c r="G291" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -6069,6 +6944,9 @@
       <c r="F292" t="n">
         <v>27.3</v>
       </c>
+      <c r="G292" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6089,6 +6967,9 @@
       <c r="F293" t="n">
         <v>27.3</v>
       </c>
+      <c r="G293" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -6109,6 +6990,9 @@
       <c r="F294" t="n">
         <v>27.3</v>
       </c>
+      <c r="G294" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -6129,6 +7013,9 @@
       <c r="F295" t="n">
         <v>21</v>
       </c>
+      <c r="G295" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6149,6 +7036,9 @@
       <c r="F296" t="n">
         <v>26</v>
       </c>
+      <c r="G296" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6168,6 +7058,9 @@
       </c>
       <c r="F297" t="n">
         <v>26</v>
+      </c>
+      <c r="G297" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="298">
@@ -6185,6 +7078,9 @@
       <c r="F298" t="n">
         <v>24.4</v>
       </c>
+      <c r="G298" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -6201,6 +7097,9 @@
       <c r="F299" t="n">
         <v>27.3</v>
       </c>
+      <c r="G299" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -6221,6 +7120,9 @@
       <c r="F300" t="n">
         <v>26.6</v>
       </c>
+      <c r="G300" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -6241,6 +7143,9 @@
       <c r="F301" t="n">
         <v>26.6</v>
       </c>
+      <c r="G301" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -6255,6 +7160,9 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -6269,6 +7177,9 @@
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -6289,6 +7200,9 @@
       <c r="F304" t="n">
         <v>25.8</v>
       </c>
+      <c r="G304" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -6309,6 +7223,9 @@
       <c r="F305" t="n">
         <v>25.8</v>
       </c>
+      <c r="G305" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -6329,6 +7246,9 @@
       <c r="F306" t="n">
         <v>25.8</v>
       </c>
+      <c r="G306" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -6349,6 +7269,9 @@
       <c r="F307" t="n">
         <v>21.4</v>
       </c>
+      <c r="G307" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -6363,6 +7286,9 @@
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -6383,6 +7309,9 @@
       <c r="F309" t="n">
         <v>21.4</v>
       </c>
+      <c r="G309" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -6403,6 +7332,9 @@
       <c r="F310" t="n">
         <v>21.4</v>
       </c>
+      <c r="G310" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -6421,6 +7353,9 @@
         <v>23.1</v>
       </c>
       <c r="F311" t="inlineStr"/>
+      <c r="G311" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -6435,6 +7370,9 @@
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
+      <c r="G312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -6455,6 +7393,9 @@
       <c r="F313" t="n">
         <v>26.5</v>
       </c>
+      <c r="G313" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -6475,6 +7416,9 @@
       <c r="F314" t="n">
         <v>26.5</v>
       </c>
+      <c r="G314" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -6489,6 +7433,9 @@
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
+      <c r="G315" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -6509,6 +7456,9 @@
       <c r="F316" t="n">
         <v>26.8</v>
       </c>
+      <c r="G316" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -6529,6 +7479,9 @@
       <c r="F317" t="n">
         <v>26.8</v>
       </c>
+      <c r="G317" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -6549,6 +7502,9 @@
       <c r="F318" t="n">
         <v>26.8</v>
       </c>
+      <c r="G318" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -6569,6 +7525,9 @@
       <c r="F319" t="n">
         <v>26.8</v>
       </c>
+      <c r="G319" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -6589,6 +7548,9 @@
       <c r="F320" t="n">
         <v>26.8</v>
       </c>
+      <c r="G320" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -6609,6 +7571,9 @@
       <c r="F321" t="n">
         <v>26.8</v>
       </c>
+      <c r="G321" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -6629,6 +7594,9 @@
       <c r="F322" t="n">
         <v>26.8</v>
       </c>
+      <c r="G322" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -6649,6 +7617,9 @@
       <c r="F323" t="n">
         <v>26.8</v>
       </c>
+      <c r="G323" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -6667,6 +7638,9 @@
         <v>22.4</v>
       </c>
       <c r="F324" t="inlineStr"/>
+      <c r="G324" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -6681,6 +7655,9 @@
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
+      <c r="G325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -6701,6 +7678,9 @@
       <c r="F326" t="n">
         <v>26.8</v>
       </c>
+      <c r="G326" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -6721,6 +7701,9 @@
       <c r="F327" t="n">
         <v>26.8</v>
       </c>
+      <c r="G327" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -6741,6 +7724,9 @@
       <c r="F328" t="n">
         <v>21.4</v>
       </c>
+      <c r="G328" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -6761,6 +7747,9 @@
       <c r="F329" t="n">
         <v>26.5</v>
       </c>
+      <c r="G329" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -6781,6 +7770,9 @@
       <c r="F330" t="n">
         <v>26.5</v>
       </c>
+      <c r="G330" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -6799,6 +7791,9 @@
       <c r="F331" t="n">
         <v>24.6</v>
       </c>
+      <c r="G331" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -6817,6 +7812,9 @@
       <c r="F332" t="n">
         <v>28.8</v>
       </c>
+      <c r="G332" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -6837,6 +7835,9 @@
       <c r="F333" t="n">
         <v>26.6</v>
       </c>
+      <c r="G333" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -6857,6 +7858,9 @@
       <c r="F334" t="n">
         <v>26.6</v>
       </c>
+      <c r="G334" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -6877,6 +7881,9 @@
       <c r="F335" t="n">
         <v>21.4</v>
       </c>
+      <c r="G335" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -6895,6 +7902,9 @@
       <c r="F336" t="n">
         <v>28.3</v>
       </c>
+      <c r="G336" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -6915,6 +7925,9 @@
       <c r="F337" t="n">
         <v>27</v>
       </c>
+      <c r="G337" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -6935,6 +7948,9 @@
       <c r="F338" t="n">
         <v>27</v>
       </c>
+      <c r="G338" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -6955,6 +7971,9 @@
       <c r="F339" t="n">
         <v>22.7</v>
       </c>
+      <c r="G339" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -6971,6 +7990,9 @@
       </c>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
+      <c r="G340" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -6991,6 +8013,9 @@
       <c r="F341" t="n">
         <v>27.5</v>
       </c>
+      <c r="G341" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -7011,6 +8036,9 @@
       <c r="F342" t="n">
         <v>27.5</v>
       </c>
+      <c r="G342" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -7031,6 +8059,9 @@
       <c r="F343" t="n">
         <v>23.8</v>
       </c>
+      <c r="G343" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -7051,6 +8082,9 @@
       <c r="F344" t="n">
         <v>23.8</v>
       </c>
+      <c r="G344" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -7071,6 +8105,9 @@
       <c r="F345" t="n">
         <v>23.8</v>
       </c>
+      <c r="G345" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -7089,6 +8126,9 @@
       <c r="F346" t="n">
         <v>28.1</v>
       </c>
+      <c r="G346" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -7109,6 +8149,9 @@
       <c r="F347" t="n">
         <v>27.5</v>
       </c>
+      <c r="G347" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -7129,6 +8172,9 @@
       <c r="F348" t="n">
         <v>27.5</v>
       </c>
+      <c r="G348" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -7149,6 +8195,9 @@
       <c r="F349" t="n">
         <v>27.5</v>
       </c>
+      <c r="G349" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -7169,6 +8218,9 @@
       <c r="F350" t="n">
         <v>27.5</v>
       </c>
+      <c r="G350" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -7189,6 +8241,9 @@
       <c r="F351" t="n">
         <v>27.5</v>
       </c>
+      <c r="G351" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -7209,6 +8264,9 @@
       <c r="F352" t="n">
         <v>27.5</v>
       </c>
+      <c r="G352" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -7227,6 +8285,9 @@
         <v>22.7</v>
       </c>
       <c r="F353" t="inlineStr"/>
+      <c r="G353" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -7247,6 +8308,9 @@
       <c r="F354" t="n">
         <v>26</v>
       </c>
+      <c r="G354" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -7267,6 +8331,9 @@
       <c r="F355" t="n">
         <v>26</v>
       </c>
+      <c r="G355" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -7287,6 +8354,9 @@
       <c r="F356" t="n">
         <v>24</v>
       </c>
+      <c r="G356" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -7303,6 +8373,9 @@
       </c>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
+      <c r="G357" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -7323,6 +8396,9 @@
       <c r="F358" t="n">
         <v>28</v>
       </c>
+      <c r="G358" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -7343,6 +8419,9 @@
       <c r="F359" t="n">
         <v>28</v>
       </c>
+      <c r="G359" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -7363,6 +8442,9 @@
       <c r="F360" t="n">
         <v>21.6</v>
       </c>
+      <c r="G360" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -7383,6 +8465,9 @@
       <c r="F361" t="n">
         <v>28.5</v>
       </c>
+      <c r="G361" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -7403,6 +8488,9 @@
       <c r="F362" t="n">
         <v>28.5</v>
       </c>
+      <c r="G362" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -7423,6 +8511,9 @@
       <c r="F363" t="n">
         <v>22.6</v>
       </c>
+      <c r="G363" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -7443,6 +8534,9 @@
       <c r="F364" t="n">
         <v>26</v>
       </c>
+      <c r="G364" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -7463,6 +8557,9 @@
       <c r="F365" t="n">
         <v>26</v>
       </c>
+      <c r="G365" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -7483,6 +8580,9 @@
       <c r="F366" t="n">
         <v>21.2</v>
       </c>
+      <c r="G366" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -7503,6 +8603,9 @@
       <c r="F367" t="n">
         <v>24.9</v>
       </c>
+      <c r="G367" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -7523,6 +8626,9 @@
       <c r="F368" t="n">
         <v>24.9</v>
       </c>
+      <c r="G368" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -7539,6 +8645,9 @@
       </c>
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
+      <c r="G369" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -7555,6 +8664,9 @@
       </c>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr"/>
+      <c r="G370" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -7575,6 +8687,9 @@
       <c r="F371" t="n">
         <v>27.3</v>
       </c>
+      <c r="G371" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -7595,6 +8710,9 @@
       <c r="F372" t="n">
         <v>27.3</v>
       </c>
+      <c r="G372" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -7613,6 +8731,9 @@
       <c r="F373" t="n">
         <v>21.4</v>
       </c>
+      <c r="G373" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -7627,6 +8748,9 @@
       <c r="D374" t="inlineStr"/>
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
+      <c r="G374" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -7647,6 +8771,9 @@
       <c r="F375" t="n">
         <v>26.8</v>
       </c>
+      <c r="G375" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -7666,6 +8793,9 @@
       </c>
       <c r="F376" t="n">
         <v>26.8</v>
+      </c>
+      <c r="G376" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
